--- a/data/trans_orig/P52_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>46938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37360</v>
+        <v>36601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56694</v>
+        <v>56989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4913998456623971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3911289243399905</v>
+        <v>0.3831825002996759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.593540075155764</v>
+        <v>0.5966300496407969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -763,19 +763,19 @@
         <v>22960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15922</v>
+        <v>16007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29081</v>
+        <v>28427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5688455772410483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3944760476331028</v>
+        <v>0.3965860905949611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7204954825566924</v>
+        <v>0.7042814633886192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -784,19 +784,19 @@
         <v>69897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57324</v>
+        <v>58206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81323</v>
+        <v>81704</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5144046902205035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4218689752775741</v>
+        <v>0.4283645842793354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5984938804920864</v>
+        <v>0.6012986940051254</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4374</v>
+        <v>4364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009180347696453303</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0457959826752565</v>
+        <v>0.04568466583787702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6672</v>
+        <v>5833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04671964427861685</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1653026450623052</v>
+        <v>0.1445161916761662</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -855,19 +855,19 @@
         <v>2763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8271</v>
+        <v>7294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02033119700848159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006504861704394544</v>
+        <v>0.00634123362998394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06086672819671372</v>
+        <v>0.05367654949974934</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11539</v>
+        <v>12867</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0364964580094264</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.120799238151235</v>
+        <v>0.1347122872563921</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12904</v>
+        <v>11828</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02565537837451263</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09496649731926851</v>
+        <v>0.08704990180232781</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>44218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34510</v>
+        <v>34695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54004</v>
+        <v>54724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4629233486317232</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3612890388839222</v>
+        <v>0.3632317377695042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5653834154810715</v>
+        <v>0.5729233640565817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -968,19 +968,19 @@
         <v>15517</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9893</v>
+        <v>9815</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22636</v>
+        <v>22261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3844347784803349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2451092746970281</v>
+        <v>0.2431638847670527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5608000789033549</v>
+        <v>0.5515209151076897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -989,19 +989,19 @@
         <v>59734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48105</v>
+        <v>46735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71800</v>
+        <v>70596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4396087343965022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3540221071947351</v>
+        <v>0.3439412556199679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5284100835228979</v>
+        <v>0.5195491415533225</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>97589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>84793</v>
+        <v>82218</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111308</v>
+        <v>111680</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5312714915156524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4616117116886208</v>
+        <v>0.4475903762088725</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6059576262955988</v>
+        <v>0.6079803228333734</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -1114,19 +1114,19 @@
         <v>40529</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32179</v>
+        <v>32731</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47062</v>
+        <v>47310</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6690362349610665</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5311921742330706</v>
+        <v>0.5403082816735673</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.776882671649465</v>
+        <v>0.7809690093638239</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>124</v>
@@ -1135,19 +1135,19 @@
         <v>138118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>120516</v>
+        <v>119600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>153354</v>
+        <v>153556</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5654367190743016</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4933778997008949</v>
+        <v>0.4896241607194565</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6278093981431383</v>
+        <v>0.6286381462662742</v>
       </c>
     </row>
     <row r="10">
@@ -1164,19 +1164,19 @@
         <v>9067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4097</v>
+        <v>4138</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18283</v>
+        <v>18260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04935938353485251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02230231288078057</v>
+        <v>0.02252936344923783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09952917016154847</v>
+        <v>0.09940490101330172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1185,19 +1185,19 @@
         <v>5384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2069</v>
+        <v>2090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10943</v>
+        <v>11749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08887562101452962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03414607473826656</v>
+        <v>0.03450602489374752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1806378037741654</v>
+        <v>0.193951848346562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1206,19 +1206,19 @@
         <v>14451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8241</v>
+        <v>8031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24610</v>
+        <v>23641</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05915928742891179</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03373560634991801</v>
+        <v>0.03287729237057328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007510315855226</v>
+        <v>0.09678490905187694</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>6103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2246</v>
+        <v>2307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13439</v>
+        <v>13736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03322601633580279</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01222737744242832</v>
+        <v>0.01256109537651002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07316357170101367</v>
+        <v>0.07477896784796431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>6103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2305</v>
+        <v>2139</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13090</v>
+        <v>13378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02498606770605861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009435959740469037</v>
+        <v>0.008757076591022941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05358797456515518</v>
+        <v>0.05476685918490046</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>70931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58468</v>
+        <v>57064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84771</v>
+        <v>85709</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3861431086136923</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3182966403550343</v>
+        <v>0.3106530643168698</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4614872224299813</v>
+        <v>0.466598481526238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1319,19 +1319,19 @@
         <v>14665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9024</v>
+        <v>8203</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22115</v>
+        <v>21757</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2420881440244039</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1489622446571003</v>
+        <v>0.1354076277296661</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3650629648103778</v>
+        <v>0.3591596600973441</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1340,19 +1340,19 @@
         <v>85596</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69818</v>
+        <v>70437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101565</v>
+        <v>102366</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.350417925790728</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2858247336794882</v>
+        <v>0.288358781383103</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.415794910482058</v>
+        <v>0.419073799946355</v>
       </c>
     </row>
     <row r="13">
@@ -1444,19 +1444,19 @@
         <v>96560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82686</v>
+        <v>83477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111680</v>
+        <v>109825</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5765815430749378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4937415719335302</v>
+        <v>0.4984621993296094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6668672803336615</v>
+        <v>0.6557932280454427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1465,19 +1465,19 @@
         <v>36206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27896</v>
+        <v>28539</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44061</v>
+        <v>44629</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5871784449389806</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4524130867387833</v>
+        <v>0.4628366581715126</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7145747263718917</v>
+        <v>0.7237753620815921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -1486,19 +1486,19 @@
         <v>132766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116336</v>
+        <v>117182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>148582</v>
+        <v>148704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.579433249874644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5077271779011588</v>
+        <v>0.5114228574835196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6484609819295382</v>
+        <v>0.6489931735145025</v>
       </c>
     </row>
     <row r="15">
@@ -1515,19 +1515,19 @@
         <v>12594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6731</v>
+        <v>6836</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21958</v>
+        <v>21599</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07520282662592605</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04018972436991152</v>
+        <v>0.04081699708930717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.131119593533454</v>
+        <v>0.1289758003883976</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1549,19 +1549,19 @@
         <v>12594</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6558</v>
+        <v>6719</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21722</v>
+        <v>21548</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05496517464068233</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02862214487825064</v>
+        <v>0.02932559267075895</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09480107375291079</v>
+        <v>0.09404191156041114</v>
       </c>
     </row>
     <row r="16">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6051</v>
+        <v>6005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01163212200560445</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03613404899418607</v>
+        <v>0.03585954142720069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1599,19 +1599,19 @@
         <v>3351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8555</v>
+        <v>8960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05434862885004435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0161987027766043</v>
+        <v>0.01606405444175198</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1387449802803646</v>
+        <v>0.1453119948950573</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1620,19 +1620,19 @@
         <v>5299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11496</v>
+        <v>11891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02312745852856737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008600664095806249</v>
+        <v>0.0086392251643769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05017316311229371</v>
+        <v>0.05189690449991287</v>
       </c>
     </row>
     <row r="17">
@@ -1649,19 +1649,19 @@
         <v>56367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43977</v>
+        <v>44333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69581</v>
+        <v>70227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3365835082935317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2625985756110932</v>
+        <v>0.2647254163862616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4154872894208621</v>
+        <v>0.4193447356828978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1670,19 +1670,19 @@
         <v>22104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14275</v>
+        <v>14478</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30107</v>
+        <v>30578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.358472926210975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.231513965683192</v>
+        <v>0.2348007845248342</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4882605672360495</v>
+        <v>0.495911278381888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -1691,19 +1691,19 @@
         <v>78471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64749</v>
+        <v>63185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>95327</v>
+        <v>93776</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3424741169561063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2825875369053545</v>
+        <v>0.2757617911268458</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4160397847896865</v>
+        <v>0.4092696074875381</v>
       </c>
     </row>
     <row r="18">
@@ -1795,19 +1795,19 @@
         <v>93762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80170</v>
+        <v>81099</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106161</v>
+        <v>108397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5371197964604606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4592552167990026</v>
+        <v>0.4645801419511382</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6081440762797465</v>
+        <v>0.6209550549882445</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1816,19 +1816,19 @@
         <v>47808</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39356</v>
+        <v>38561</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56275</v>
+        <v>54825</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6221103503906305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5121275639275226</v>
+        <v>0.5017815699614446</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7322862952655037</v>
+        <v>0.7134254372140325</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -1837,19 +1837,19 @@
         <v>141570</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125077</v>
+        <v>125337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156598</v>
+        <v>156900</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5630983224433662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.497498715420155</v>
+        <v>0.4985331350758149</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6228739223878682</v>
+        <v>0.6240751615310668</v>
       </c>
     </row>
     <row r="20">
@@ -1866,19 +1866,19 @@
         <v>3716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1029</v>
+        <v>892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9346</v>
+        <v>9582</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02128828618706977</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005893383061683111</v>
+        <v>0.005110618345021344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0535390282319178</v>
+        <v>0.0548891899130714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1887,19 +1887,19 @@
         <v>3768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9564</v>
+        <v>10342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04902549433079693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01263854361139144</v>
+        <v>0.01285138226695643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.124451529058862</v>
+        <v>0.1345791767429317</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1908,19 +1908,19 @@
         <v>7484</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3566</v>
+        <v>3424</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14974</v>
+        <v>15085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02976654346548585</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01418507064992468</v>
+        <v>0.01361992753387271</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05956054633889756</v>
+        <v>0.06000159517091079</v>
       </c>
     </row>
     <row r="21">
@@ -1937,19 +1937,19 @@
         <v>8622</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3851</v>
+        <v>4627</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16437</v>
+        <v>17497</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04939225514870425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02205851574912543</v>
+        <v>0.02650474512752091</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09416114986409996</v>
+        <v>0.100232389966906</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1958,19 +1958,19 @@
         <v>4752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1796</v>
+        <v>1852</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12816</v>
+        <v>11815</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06183101033738635</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02336703492089773</v>
+        <v>0.02409727668173349</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1667672838808768</v>
+        <v>0.1537483998932013</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -1979,19 +1979,19 @@
         <v>13374</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6706</v>
+        <v>7580</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22153</v>
+        <v>24363</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05319433090796662</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02667208159793503</v>
+        <v>0.03014968419704001</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08811489258240993</v>
+        <v>0.09690515233580568</v>
       </c>
     </row>
     <row r="22">
@@ -2008,19 +2008,19 @@
         <v>68464</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56084</v>
+        <v>55399</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81610</v>
+        <v>81723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3921996622037653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3212799344022261</v>
+        <v>0.3173526027138862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4675062466025214</v>
+        <v>0.4681516174550668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2029,19 +2029,19 @@
         <v>20521</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13465</v>
+        <v>13987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28553</v>
+        <v>29022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2670331449411863</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1752133478173884</v>
+        <v>0.1820038407163083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3715493248506131</v>
+        <v>0.3776584450264188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2050,19 +2050,19 @@
         <v>88985</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74775</v>
+        <v>73874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103912</v>
+        <v>105095</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3539408031831813</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2974207963169462</v>
+        <v>0.2938370583903175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4133123465278944</v>
+        <v>0.4180197862299012</v>
       </c>
     </row>
     <row r="23">
@@ -2154,19 +2154,19 @@
         <v>334849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>309779</v>
+        <v>309667</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>360296</v>
+        <v>358914</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5389987402689004</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.49864486570002</v>
+        <v>0.4984650366598358</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5799606337248397</v>
+        <v>0.5777364856372512</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -2175,19 +2175,19 @@
         <v>147502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>131007</v>
+        <v>132774</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162909</v>
+        <v>162079</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6160081572795739</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5471215537921429</v>
+        <v>0.5544983702280735</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6803535270254156</v>
+        <v>0.6768872273315808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>454</v>
@@ -2196,19 +2196,19 @@
         <v>482351</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>451259</v>
+        <v>452711</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>512802</v>
+        <v>511373</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5604231473010965</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5242979615841799</v>
+        <v>0.525985403143086</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5958030041442881</v>
+        <v>0.5941427081685402</v>
       </c>
     </row>
     <row r="25">
@@ -2225,19 +2225,19 @@
         <v>26254</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17963</v>
+        <v>17772</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37814</v>
+        <v>37682</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04226061934525725</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02891521528658426</v>
+        <v>0.0286068113025901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06086841671900531</v>
+        <v>0.06065650200050201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2246,19 +2246,19 @@
         <v>11037</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5799</v>
+        <v>5202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20144</v>
+        <v>19469</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04609384115404721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02421777416034232</v>
+        <v>0.02172376387047794</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08412658253820431</v>
+        <v>0.08130927052199108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2267,19 +2267,19 @@
         <v>37291</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26308</v>
+        <v>26746</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51456</v>
+        <v>51665</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04332704092672209</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03056559075419722</v>
+        <v>0.03107466336338391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05978490256039626</v>
+        <v>0.06002751126977163</v>
       </c>
     </row>
     <row r="26">
@@ -2296,19 +2296,19 @@
         <v>20160</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11535</v>
+        <v>11442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32582</v>
+        <v>31883</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0324503496868912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01856707597709742</v>
+        <v>0.01841757559238243</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05244693750182187</v>
+        <v>0.05132074837356523</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2317,19 +2317,19 @@
         <v>8103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3158</v>
+        <v>3310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16090</v>
+        <v>17908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03383913727159632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01318947329874973</v>
+        <v>0.01382541670051328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06719684385945043</v>
+        <v>0.07478668681639276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2338,19 +2338,19 @@
         <v>28262</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18867</v>
+        <v>18884</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42749</v>
+        <v>41115</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03283671737607731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02192081015335356</v>
+        <v>0.02194035695895628</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04966818653378158</v>
+        <v>0.04777004430397418</v>
       </c>
     </row>
     <row r="27">
@@ -2367,19 +2367,19 @@
         <v>239980</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>216315</v>
+        <v>215926</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>266641</v>
+        <v>264201</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3862902906989512</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3481972513352671</v>
+        <v>0.3475719181476313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4292062309127597</v>
+        <v>0.425279440844137</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>69</v>
@@ -2388,19 +2388,19 @@
         <v>72806</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58345</v>
+        <v>59585</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>87628</v>
+        <v>86835</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3040588642947826</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2436631559866707</v>
+        <v>0.2488413576107985</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.365957505401326</v>
+        <v>0.3626446060123799</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>294</v>
@@ -2409,19 +2409,19 @@
         <v>312786</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>284504</v>
+        <v>285230</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>342291</v>
+        <v>345792</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.363413094396104</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3305526520037028</v>
+        <v>0.3313960724124402</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3976933223843831</v>
+        <v>0.4017604594278655</v>
       </c>
     </row>
     <row r="28">
@@ -2753,19 +2753,19 @@
         <v>44847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35395</v>
+        <v>35086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55855</v>
+        <v>55615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4065818484096409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3208926605705456</v>
+        <v>0.318089582407681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5063757554360321</v>
+        <v>0.5042034732866089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2774,19 +2774,19 @@
         <v>27405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20774</v>
+        <v>20709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33178</v>
+        <v>33415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6358904411789448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4820356525720792</v>
+        <v>0.480525829077612</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7698435194520051</v>
+        <v>0.7753455966845204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -2795,19 +2795,19 @@
         <v>72252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59666</v>
+        <v>59981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84151</v>
+        <v>84268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4710056094505644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3889559540194801</v>
+        <v>0.3910090008159103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5485734990909596</v>
+        <v>0.549334085703823</v>
       </c>
     </row>
     <row r="5">
@@ -2824,19 +2824,19 @@
         <v>2984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8012</v>
+        <v>8652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02705633459309789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008432342015827203</v>
+        <v>0.008303932536777631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07263811975343366</v>
+        <v>0.07843628943850386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2858,19 +2858,19 @@
         <v>2984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8045</v>
+        <v>8795</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01945491498025927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006028214496547339</v>
+        <v>0.006083625396306073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05244735917729251</v>
+        <v>0.05733661578098499</v>
       </c>
     </row>
     <row r="6">
@@ -2887,19 +2887,19 @@
         <v>4354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1010</v>
+        <v>1407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10380</v>
+        <v>12743</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03946970610160572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009160786304330558</v>
+        <v>0.01275379366611858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09410602582654802</v>
+        <v>0.1155249983322765</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>4354</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10722</v>
+        <v>10821</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02838077618608572</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006577959539535744</v>
+        <v>0.006626021892227192</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06989696103275819</v>
+        <v>0.07054027006179706</v>
       </c>
     </row>
     <row r="7">
@@ -2950,19 +2950,19 @@
         <v>58118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47781</v>
+        <v>48310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68774</v>
+        <v>68649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5268921108956555</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.433177635184579</v>
+        <v>0.4379773760875822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6235039289669504</v>
+        <v>0.6223684629300879</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2971,19 +2971,19 @@
         <v>15692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9919</v>
+        <v>9682</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22323</v>
+        <v>22388</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3641095588210552</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2301564805479947</v>
+        <v>0.2246544033154796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5179643474279199</v>
+        <v>0.5194741709223879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2992,19 +2992,19 @@
         <v>73810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62297</v>
+        <v>61776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86567</v>
+        <v>86856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4811586993830906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4061104848045198</v>
+        <v>0.4027086337911787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5643246526354446</v>
+        <v>0.5662051693782008</v>
       </c>
     </row>
     <row r="8">
@@ -3096,19 +3096,19 @@
         <v>91417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76490</v>
+        <v>75579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>108375</v>
+        <v>106502</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3974567671194599</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3325548228251767</v>
+        <v>0.3285963382416491</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4711842696936944</v>
+        <v>0.463040766116688</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -3117,19 +3117,19 @@
         <v>37275</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28047</v>
+        <v>28483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46278</v>
+        <v>47169</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4423510279227481</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3328383049531972</v>
+        <v>0.3380112526402452</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5491871523780921</v>
+        <v>0.5597681562010397</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>117</v>
@@ -3138,19 +3138,19 @@
         <v>128693</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>111665</v>
+        <v>109490</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>148319</v>
+        <v>147977</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4094942766300288</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3553140794552921</v>
+        <v>0.3483935845185065</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4719461534013736</v>
+        <v>0.4708550062287534</v>
       </c>
     </row>
     <row r="10">
@@ -3167,19 +3167,19 @@
         <v>15412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8694</v>
+        <v>8590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24195</v>
+        <v>24287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0670055899096728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03779730928684655</v>
+        <v>0.03734519592706119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1051919901737697</v>
+        <v>0.105591336667975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3188,19 +3188,19 @@
         <v>5011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1967</v>
+        <v>1935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11857</v>
+        <v>11291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05947129824702597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02334098550590926</v>
+        <v>0.02296557988083003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1407128473516442</v>
+        <v>0.133988946039663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3209,19 +3209,19 @@
         <v>20423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12626</v>
+        <v>12717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30982</v>
+        <v>30704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06498541837946535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04017519428374355</v>
+        <v>0.04046407203344146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09858222357594512</v>
+        <v>0.09769853980196253</v>
       </c>
     </row>
     <row r="11">
@@ -3238,19 +3238,19 @@
         <v>6027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2037</v>
+        <v>2062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13561</v>
+        <v>13571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0262051600466734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008856009297964476</v>
+        <v>0.008966858248436769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05896041968317745</v>
+        <v>0.05900345949123362</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -3259,19 +3259,19 @@
         <v>4885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10785</v>
+        <v>10830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05796536399533005</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02246362813292444</v>
+        <v>0.02238450655588855</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1279845103640712</v>
+        <v>0.1285203263395606</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -3280,19 +3280,19 @@
         <v>10912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5501</v>
+        <v>5302</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20192</v>
+        <v>19842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0347210315689763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01750429496010285</v>
+        <v>0.01687135677549164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06424879273186333</v>
+        <v>0.06313640963802014</v>
       </c>
     </row>
     <row r="12">
@@ -3309,19 +3309,19 @@
         <v>117150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>101573</v>
+        <v>101165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133255</v>
+        <v>132894</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5093324829241939</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4416082453265039</v>
+        <v>0.4398372184914507</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5793534594953813</v>
+        <v>0.5777833562768374</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -3330,19 +3330,19 @@
         <v>37095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28823</v>
+        <v>27491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46573</v>
+        <v>46424</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4402123098348958</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3420533175854079</v>
+        <v>0.3262455284888972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5526919001863861</v>
+        <v>0.5509222168579789</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -3351,19 +3351,19 @@
         <v>154244</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134740</v>
+        <v>135922</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>170814</v>
+        <v>174014</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4907992734215296</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4287380253889223</v>
+        <v>0.4324990981641812</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5435242849811108</v>
+        <v>0.5537062245194833</v>
       </c>
     </row>
     <row r="13">
@@ -3455,19 +3455,19 @@
         <v>47785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35578</v>
+        <v>36493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60519</v>
+        <v>60470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2535516249968441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1887828614256854</v>
+        <v>0.1936365176903903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3211182513951386</v>
+        <v>0.3208607028052048</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -3476,19 +3476,19 @@
         <v>22069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14890</v>
+        <v>14289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31384</v>
+        <v>30418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2939543738741923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1983337781126978</v>
+        <v>0.190328629505977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4180325908884421</v>
+        <v>0.405168815306262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -3497,19 +3497,19 @@
         <v>69853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55904</v>
+        <v>55310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86657</v>
+        <v>86679</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2650612843101744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2121302172001563</v>
+        <v>0.2098773531121563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3288239132025366</v>
+        <v>0.3289045801894539</v>
       </c>
     </row>
     <row r="15">
@@ -3526,19 +3526,19 @@
         <v>8360</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4046</v>
+        <v>3339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15965</v>
+        <v>14922</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04435681868246438</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02146813822134947</v>
+        <v>0.01771751526913239</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08471113721162385</v>
+        <v>0.07917563829823102</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -3547,19 +3547,19 @@
         <v>4036</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10078</v>
+        <v>9064</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05375354893885464</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01386797426626259</v>
+        <v>0.01372127743916739</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.134238346040327</v>
+        <v>0.1207312351226404</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -3568,19 +3568,19 @@
         <v>12395</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6204</v>
+        <v>7218</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19691</v>
+        <v>21675</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04703369505636257</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02354230321278227</v>
+        <v>0.02738967130019911</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07471999760932629</v>
+        <v>0.08224482834244205</v>
       </c>
     </row>
     <row r="16">
@@ -3597,19 +3597,19 @@
         <v>8173</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3103</v>
+        <v>3166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15892</v>
+        <v>15840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04336512224832152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01646453278260131</v>
+        <v>0.01680058691787487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08432718619893657</v>
+        <v>0.08405068187357681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4688</v>
+        <v>4643</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01237709098262656</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06244153657035819</v>
+        <v>0.06184361219759735</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3639,19 +3639,19 @@
         <v>9102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4048</v>
+        <v>4028</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17184</v>
+        <v>17236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03453746342387604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0153605370580254</v>
+        <v>0.01528275572269533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06520588470599038</v>
+        <v>0.06540103716579997</v>
       </c>
     </row>
     <row r="17">
@@ -3668,19 +3668,19 @@
         <v>124145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109210</v>
+        <v>110266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137801</v>
+        <v>136750</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.65872643407237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5794825959872016</v>
+        <v>0.5850814109119841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7311867777117008</v>
+        <v>0.7256107098661172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -3689,19 +3689,19 @@
         <v>48042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38673</v>
+        <v>39359</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55191</v>
+        <v>55844</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6399149862043265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5151241413532504</v>
+        <v>0.5242662209169231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7351436573656205</v>
+        <v>0.7438480559052436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>159</v>
@@ -3710,19 +3710,19 @@
         <v>172187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155274</v>
+        <v>155802</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>187544</v>
+        <v>188078</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6533675572095869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5891913966152388</v>
+        <v>0.5911956499049495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7116426567035998</v>
+        <v>0.7136696918926279</v>
       </c>
     </row>
     <row r="18">
@@ -3814,19 +3814,19 @@
         <v>103408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89380</v>
+        <v>88678</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117908</v>
+        <v>120302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4886183389711082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4223334583055424</v>
+        <v>0.4190186916279325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5571330417541024</v>
+        <v>0.5684456098923663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -3835,19 +3835,19 @@
         <v>71854</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59836</v>
+        <v>60044</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84154</v>
+        <v>82815</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5805963269782374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4834887933670456</v>
+        <v>0.4851722492552821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6799846412336427</v>
+        <v>0.6691630367981033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -3856,19 +3856,19 @@
         <v>175262</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156067</v>
+        <v>155172</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>194075</v>
+        <v>193382</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5225579399607004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4653281097392774</v>
+        <v>0.4626574454205741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5786510492038043</v>
+        <v>0.5765858008657342</v>
       </c>
     </row>
     <row r="20">
@@ -3885,19 +3885,19 @@
         <v>16849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10066</v>
+        <v>10037</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25596</v>
+        <v>26929</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07961216666906833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0475627567961348</v>
+        <v>0.0474278815992219</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1209436562813212</v>
+        <v>0.1272460476263568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -3906,19 +3906,19 @@
         <v>12362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6710</v>
+        <v>6170</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20930</v>
+        <v>21957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09988527912239369</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05421907729815875</v>
+        <v>0.04985788141244338</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1691166669063183</v>
+        <v>0.1774202206791445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3927,19 +3927,19 @@
         <v>29210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20006</v>
+        <v>19696</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42572</v>
+        <v>40512</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08709288420150298</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05964977960937469</v>
+        <v>0.05872625759919568</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1269310397626094</v>
+        <v>0.1207891684980479</v>
       </c>
     </row>
     <row r="21">
@@ -3956,19 +3956,19 @@
         <v>9906</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4817</v>
+        <v>4488</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18140</v>
+        <v>17762</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04680891439894822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02276116760513004</v>
+        <v>0.0212054474081678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08571583809498555</v>
+        <v>0.08393067098674846</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3977,19 +3977,19 @@
         <v>5217</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1578</v>
+        <v>1529</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12462</v>
+        <v>11872</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04215199306539459</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01274787941689621</v>
+        <v>0.01235513946481527</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1006923986887853</v>
+        <v>0.09593006351103667</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -3998,19 +3998,19 @@
         <v>15123</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8414</v>
+        <v>8480</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23981</v>
+        <v>24744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04509052443059536</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02508665885379802</v>
+        <v>0.0252839534573946</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07150168596660134</v>
+        <v>0.07377743111231314</v>
       </c>
     </row>
     <row r="22">
@@ -4027,19 +4027,19 @@
         <v>81470</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68104</v>
+        <v>66970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95996</v>
+        <v>96825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3849605799608753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3218018571047814</v>
+        <v>0.3164453722832014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4535943888800274</v>
+        <v>0.457513123180682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -4048,19 +4048,19 @@
         <v>34327</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24521</v>
+        <v>24905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45577</v>
+        <v>44910</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2773664008339743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1981361252343685</v>
+        <v>0.2012344050740534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3682755816773197</v>
+        <v>0.3628837312331708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -4069,19 +4069,19 @@
         <v>115797</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>98135</v>
+        <v>99050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133400</v>
+        <v>133505</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3452586514072013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2925983289870551</v>
+        <v>0.2953248691848143</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3977440652429102</v>
+        <v>0.3980552770109119</v>
       </c>
     </row>
     <row r="23">
@@ -4173,19 +4173,19 @@
         <v>287458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>260096</v>
+        <v>260468</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>316064</v>
+        <v>312718</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3882437483254648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3512883532184011</v>
+        <v>0.3517907694801852</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4268794025707255</v>
+        <v>0.4223606411928029</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>153</v>
@@ -4194,19 +4194,19 @@
         <v>158603</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>141349</v>
+        <v>140190</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176197</v>
+        <v>178559</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4862180647088286</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4333236699944122</v>
+        <v>0.4297723898807476</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5401554710482545</v>
+        <v>0.5473948882497329</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>422</v>
@@ -4215,19 +4215,19 @@
         <v>446060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>414190</v>
+        <v>411936</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>480757</v>
+        <v>477933</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4182070405221606</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3883271512363702</v>
+        <v>0.3862139907270622</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4507374717217648</v>
+        <v>0.4480897035364947</v>
       </c>
     </row>
     <row r="25">
@@ -4244,19 +4244,19 @@
         <v>43604</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31536</v>
+        <v>31194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58003</v>
+        <v>59650</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05889248507713864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04259262056404222</v>
+        <v>0.04213033926759582</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0783397152452238</v>
+        <v>0.08056338056904203</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -4265,19 +4265,19 @@
         <v>21409</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12987</v>
+        <v>12846</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33318</v>
+        <v>32814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06563095743054782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03981391350094324</v>
+        <v>0.0393821161069316</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1021413714776865</v>
+        <v>0.1005958821113596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -4286,19 +4286,19 @@
         <v>65013</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49965</v>
+        <v>50308</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83049</v>
+        <v>83047</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.060953298804019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.046845289760631</v>
+        <v>0.04716670180217573</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07786330256943798</v>
+        <v>0.07786156979127416</v>
       </c>
     </row>
     <row r="26">
@@ -4315,19 +4315,19 @@
         <v>28460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18627</v>
+        <v>18216</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43366</v>
+        <v>41518</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03843842139620918</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02515756496911708</v>
+        <v>0.02460310861328007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05857090625103047</v>
+        <v>0.05607461041802443</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -4336,19 +4336,19 @@
         <v>11030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5739</v>
+        <v>5183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20578</v>
+        <v>19368</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03381513124067489</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0175932356110878</v>
+        <v>0.01588924227452046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06308456025655125</v>
+        <v>0.05937449223397116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -4357,19 +4357,19 @@
         <v>39490</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28646</v>
+        <v>27215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55325</v>
+        <v>53849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0370244896745697</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02685689094596799</v>
+        <v>0.02551520388406582</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05187073183331233</v>
+        <v>0.05048660504968965</v>
       </c>
     </row>
     <row r="27">
@@ -4386,19 +4386,19 @@
         <v>380883</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>351173</v>
+        <v>353074</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>409264</v>
+        <v>407769</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5144253452011873</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4742989380993671</v>
+        <v>0.4768666649702723</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5527567651110818</v>
+        <v>0.5507380064922575</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>134</v>
@@ -4407,19 +4407,19 @@
         <v>135155</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>117838</v>
+        <v>116438</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>153188</v>
+        <v>153358</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4143358466199487</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3612478372403058</v>
+        <v>0.3569552485238821</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4696169256365613</v>
+        <v>0.470137697372178</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>484</v>
@@ -4428,19 +4428,19 @@
         <v>516038</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>483565</v>
+        <v>483479</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>549077</v>
+        <v>550888</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4838151709992507</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4533702298158242</v>
+        <v>0.4532898991641534</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5147916975805983</v>
+        <v>0.5164893485669673</v>
       </c>
     </row>
     <row r="28">
